--- a/fitted_results/fitted_results_competing(sub1_sub5_joint_band)/fitted_results(advanced).xlsx
+++ b/fitted_results/fitted_results_competing(sub1_sub5_joint_band)/fitted_results(advanced).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>loss</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,16 +472,39 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1328755345513738</v>
+        <v>2.826410425362594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2144926084561092</v>
+        <v>-0.6445445124051743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7578171059248013</v>
+        <v>-0.8024600848946235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04100835181820914</v>
+        <v>0.04761805329781416</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GRAPH_LAPLACIAN_FILTERING</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3377144162215687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3971866546933739</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.03976492831265718</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05979883844055934</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-4.85598959336619</v>
       </c>
     </row>
   </sheetData>
